--- a/temp.xlsx
+++ b/temp.xlsx
@@ -4,9 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Instructions" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Metadata" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name=" Data" state="visible" r:id="rId6"/>
+    <sheet sheetId="1" name="undefined Data" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027" fullCalcOnLoad="1"/>
 </workbook>
@@ -15,7 +13,17 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve"> Audit</t>
+    <r>
+      <rPr>
+        <b/>
+        <color theme="1"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+        <sz val="18"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>undefined Audit</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -40,7 +48,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <bgColor rgb="cfe2f3"/>
+        <fgColor rgb="cfe2f3"/>
       </patternFill>
     </fill>
   </fills>
@@ -56,8 +64,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" indent="2"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -400,22 +412,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
-  <sheetFormatPr customHeight="1"/>
-  <sheetData/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
-  <sheetFormatPr customHeight="1"/>
-  <sheetData/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetFormatPr customHeight="1"/>
   <sheetData>
@@ -427,13 +423,13 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -441,13 +437,13 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -455,13 +451,13 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4"/>

--- a/temp.xlsx
+++ b/temp.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="undefined Data" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="2 Data" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027" fullCalcOnLoad="1"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <r>
       <rPr>
@@ -19,10 +19,79 @@
         <color theme="1"/>
         <family val="2"/>
         <scheme val="minor"/>
-        <sz val="18"/>
+        <sz val="24"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>undefined Audit</t>
+      <t>2 Audit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Spreadsheet generated by </t>
+    </r>
+    <r>
+      <rPr>
+        <color theme="1"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">The Data Grid </t>
+    </r>
+    <r>
+      <rPr>
+        <color theme="1"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">at Sun Jan 16 2022 15:50:30 GMT-0800 (Pacific Standard Time) for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <color theme="1"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Bruin Home Solutions.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <color theme="1"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Required</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <color rgb="ffffff"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Column Information</t>
     </r>
   </si>
 </sst>
@@ -39,7 +108,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -51,10 +120,100 @@
         <fgColor rgb="cfe2f3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="cccccc"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="f4cccc"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="38761d"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ffffff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="b6d7a8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="d9ead3"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="4a86e8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="4a86e8"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="e69138"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="4a86e8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="e69138"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="e69138"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="38761d"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="38761d"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="38761d"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -64,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" indent="2"/>
@@ -73,6 +232,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:Q6"/>
   <sheetFormatPr customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,15 +600,22 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -444,8 +628,13 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -458,25 +647,77 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="11">
     <mergeCell ref="A1:E3"/>
-    <mergeCell ref="F1:L3"/>
-    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="F1:P3"/>
+    <mergeCell ref="Q1:Q4"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="H4:P4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:P6"/>
   </mergeCells>
 </worksheet>
 </file>